--- a/biology/Médecine/Pisiforme/Pisiforme.xlsx
+++ b/biology/Médecine/Pisiforme/Pisiforme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pisiforme est le plus petit os du carpe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os pisiforme est situé au niveau de la première rangée des os du carpe sur un plan palmaire. Il forme le bord ulnaire du canal carpien et la paroi médiale du canal ulnaire.
 Il présente :
@@ -548,7 +562,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os pisiforme est sujet aux luxations à cause de l'insertion tendineuse du muscle fléchisseur ulnaire du carpe et du muscle abducteur du cinquième doigt.
 </t>
@@ -579,11 +595,13 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Par rapport aux autres primates, les humains ont un os pisiforme court.
-Tous les autres tétrapodes ont un pisiforme[1]. Chez les mammifères et les primates non humains, le pisiforme est un os élargi et allongé qui s'articule avec l'ulna[2]. Chez certains taxons, le pisiforme s'articule même avec le radius[2].
-Chez ces taxons non humains, le pisiforme se développe à partir de deux centres d'ossification séparés par une plaque épiphysaire palmaire[2], de ce fait le pisiforme n'est pas un véritable os sésamoïde.
+Tous les autres tétrapodes ont un pisiforme. Chez les mammifères et les primates non humains, le pisiforme est un os élargi et allongé qui s'articule avec l'ulna. Chez certains taxons, le pisiforme s'articule même avec le radius.
+Chez ces taxons non humains, le pisiforme se développe à partir de deux centres d'ossification séparés par une plaque épiphysaire palmaire, de ce fait le pisiforme n'est pas un véritable os sésamoïde.
 </t>
         </is>
       </c>
